--- a/data/trans_bre/P57_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Edad-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 7,26</t>
+          <t>-6,21; 7,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 3,28</t>
+          <t>-19,38; 3,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 18,48</t>
+          <t>-13,53; 18,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 5,4</t>
+          <t>-26,29; 6,14</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 7,51</t>
+          <t>-2,92; 7,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 4,28</t>
+          <t>-23,69; 3,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 25,68</t>
+          <t>-8,74; 23,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 8,27</t>
+          <t>-42,38; 7,35</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,59</t>
+          <t>-8,73; 1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,82</t>
+          <t>-6,77; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 8,09</t>
+          <t>-23,84; 6,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 9,82</t>
+          <t>-12,18; 9,74</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 0,88</t>
+          <t>-9,05; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,67; -6,65</t>
+          <t>-47,29; -7,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 4,27</t>
+          <t>-31,62; 3,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,25; -15,32</t>
+          <t>-59,87; -16,45</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -0,82</t>
+          <t>-11,36; -0,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 1,32</t>
+          <t>-8,79; 0,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,07; -2,69</t>
+          <t>-39,64; -2,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 4,38</t>
+          <t>-23,1; 2,79</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -1,78</t>
+          <t>-14,43; -1,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,76; -3,93</t>
+          <t>-33,12; -3,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,57; -8,32</t>
+          <t>-51,6; -5,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,51; -10,8</t>
+          <t>-76,38; -10,01</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 0,19</t>
+          <t>-11,65; 0,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -1,27</t>
+          <t>-12,34; -1,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-52,41; 6,2</t>
+          <t>-53,79; 1,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -4,44</t>
+          <t>-34,13; -5,73</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -1,59</t>
+          <t>-6,2; -1,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,07; -6,65</t>
+          <t>-27,7; -7,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -5,48</t>
+          <t>-19,64; -6,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -14,14</t>
+          <t>-45,02; -16,0</t>
         </is>
       </c>
     </row>
